--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>0.02838247408885053</v>
+        <v>0.5087393606160395</v>
       </c>
       <c r="C3">
-        <v>-0.7258201309573775</v>
+        <v>-0.4513776153963867</v>
       </c>
       <c r="D3">
-        <v>-0.8922816569862713</v>
+        <v>-1.118515468742087</v>
       </c>
       <c r="E3">
         <v>-1.324983933426882</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-1.324983933426882</v>
       </c>
-      <c r="BA3">
-        <v>-1.324983933426882</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>0.1845283452003521</v>
+        <v>0.5613599890424092</v>
       </c>
       <c r="C4">
-        <v>0.09559322253007707</v>
+        <v>-0.2663267917771495</v>
       </c>
       <c r="D4">
-        <v>0.3601662635360992</v>
+        <v>-0.6296678961043134</v>
       </c>
       <c r="E4">
-        <v>-0.4252238776383699</v>
+        <v>-0.8803581938132576</v>
       </c>
       <c r="F4">
-        <v>-0.0806988647449991</v>
+        <v>-0.1156872058426073</v>
       </c>
       <c r="G4">
         <v>-0.3900454704678369</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>-0.3900454704678369</v>
       </c>
-      <c r="BA4">
-        <v>-0.3900454704678369</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>-0.2332638394356712</v>
-      </c>
       <c r="D5">
-        <v>-0.1959480272123337</v>
+        <v>-0.6591481056594906</v>
       </c>
       <c r="E5">
-        <v>-0.3619048046067941</v>
+        <v>-0.8332792306556258</v>
       </c>
       <c r="F5">
-        <v>-0.4540558352841284</v>
+        <v>-0.5120992642018263</v>
       </c>
       <c r="G5">
-        <v>-0.608538493861166</v>
+        <v>-1.213027585730386</v>
       </c>
       <c r="H5">
-        <v>-0.3552279522900159</v>
+        <v>-0.4084169314491404</v>
       </c>
       <c r="I5">
         <v>-0.2995848153489522</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>-0.2995848153489522</v>
       </c>
-      <c r="BA5">
-        <v>-0.2995848153489522</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.6270481586638676</v>
-      </c>
       <c r="F6">
-        <v>-0.5392134643078528</v>
+        <v>-0.5336548278322195</v>
       </c>
       <c r="G6">
-        <v>0.173322054206948</v>
+        <v>-1.019482592112642</v>
       </c>
       <c r="H6">
-        <v>-0.32034680548646</v>
+        <v>-0.6403426624573716</v>
       </c>
       <c r="I6">
-        <v>-0.007565898326467035</v>
+        <v>-0.3230872999110068</v>
       </c>
       <c r="J6">
-        <v>-0.1826650432039445</v>
+        <v>-0.2188016966516937</v>
       </c>
       <c r="K6">
         <v>-0.2075757021743008</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>-0.2075757021743008</v>
       </c>
-      <c r="BA6">
-        <v>-0.2075757021743008</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>-0.1718950471622849</v>
-      </c>
       <c r="H7">
-        <v>-0.2549796953026706</v>
+        <v>-0.6829735749296906</v>
       </c>
       <c r="I7">
-        <v>0.1561590051099238</v>
+        <v>-0.4248987225036194</v>
       </c>
       <c r="J7">
-        <v>-0.3586568723787154</v>
+        <v>-0.1561757764150462</v>
       </c>
       <c r="K7">
-        <v>0.07493742497184375</v>
+        <v>-0.2793004163246238</v>
       </c>
       <c r="L7">
-        <v>0.09992491247496904</v>
+        <v>0.05915234751026066</v>
       </c>
       <c r="M7">
         <v>0.124712275190686</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>0.124712275190686</v>
       </c>
-      <c r="BA7">
-        <v>0.124712275190686</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>0.01633343262839038</v>
-      </c>
       <c r="J8">
-        <v>-0.22348003570134</v>
+        <v>-0.1931908880471678</v>
       </c>
       <c r="K8">
-        <v>0.0634430126847052</v>
+        <v>-0.3668158601783045</v>
       </c>
       <c r="L8">
-        <v>0.1535250655530618</v>
+        <v>0.04624521867206965</v>
       </c>
       <c r="M8">
-        <v>-0.02565626552746281</v>
+        <v>-0.119752617912039</v>
       </c>
       <c r="N8">
-        <v>-0.2256049529964055</v>
+        <v>-0.2979029954603529</v>
       </c>
       <c r="O8">
         <v>-0.255298189276465</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>-0.255298189276465</v>
       </c>
-      <c r="BA8">
-        <v>-0.255298189276465</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>-0.03067705527540765</v>
-      </c>
       <c r="L9">
-        <v>0.009319740734636817</v>
+        <v>0.04932853730390541</v>
       </c>
       <c r="M9">
-        <v>0.1800740012037672</v>
+        <v>-0.07066185312620821</v>
       </c>
       <c r="N9">
-        <v>0.1500249875062254</v>
+        <v>-0.1124510725819206</v>
       </c>
       <c r="O9">
-        <v>0.05470007129930732</v>
+        <v>-0.05946205208092747</v>
       </c>
       <c r="P9">
-        <v>0.068498965518482</v>
+        <v>0.07317408757452348</v>
       </c>
       <c r="Q9">
         <v>0.07418514192796266</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>0.07418514192796266</v>
       </c>
-      <c r="BA9">
-        <v>0.07418514192796266</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>0.08002400320015202</v>
-      </c>
       <c r="N10">
-        <v>0</v>
+        <v>-0.1199460107991879</v>
       </c>
       <c r="O10">
-        <v>-0.1066389724792671</v>
+        <v>-0.07652469744219292</v>
       </c>
       <c r="P10">
-        <v>-0.06681585330327033</v>
+        <v>-0.002181547367274828</v>
       </c>
       <c r="Q10">
-        <v>-0.1118063021044113</v>
+        <v>-0.001680662521774678</v>
       </c>
       <c r="R10">
-        <v>-0.1275185062600492</v>
+        <v>-0.06188089372189953</v>
       </c>
       <c r="S10">
         <v>-0.07611406013281474</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>-0.07611406013281474</v>
       </c>
-      <c r="BA10">
-        <v>-0.07611406013281474</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>-0.1848140619975513</v>
-      </c>
       <c r="P11">
-        <v>-0.1661759635637194</v>
+        <v>-0.002407973313722778</v>
       </c>
       <c r="Q11">
-        <v>0.01115275584482323</v>
+        <v>-0.03430226911815826</v>
       </c>
       <c r="R11">
-        <v>-0.2684215737683071</v>
+        <v>-0.07932008107318644</v>
       </c>
       <c r="S11">
-        <v>-0.1441854746430216</v>
+        <v>-0.1247901924724348</v>
       </c>
       <c r="T11">
-        <v>-0.2221926054819634</v>
+        <v>-0.2199961235931358</v>
       </c>
       <c r="U11">
         <v>-0.191300579729714</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>-0.191300579729714</v>
       </c>
-      <c r="BA11">
-        <v>-0.191300579729714</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>-0.02729614598571128</v>
-      </c>
       <c r="R12">
-        <v>-0.08304251476010105</v>
+        <v>-0.06805249969644711</v>
       </c>
       <c r="S12">
-        <v>0.06135596203793448</v>
+        <v>-0.03405723100528002</v>
       </c>
       <c r="T12">
-        <v>-0.1056379786942729</v>
+        <v>-0.1022879117640763</v>
       </c>
       <c r="U12">
-        <v>0.09771527089190712</v>
+        <v>-0.05219951976568327</v>
       </c>
       <c r="V12">
-        <v>0.06531417979365184</v>
+        <v>0.0441865668729946</v>
       </c>
       <c r="W12">
-        <v>0.1195352120703319</v>
+        <v>0.0882025545300813</v>
       </c>
       <c r="X12">
-        <v>0.1141271696349921</v>
+        <v>0.1415113532986956</v>
       </c>
       <c r="Y12">
         <v>0.0970330232288763</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>0.0970330232288763</v>
       </c>
-      <c r="BA12">
-        <v>0.0970330232288763</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>-0.1601675814711268</v>
-      </c>
-      <c r="S13">
-        <v>-0.04884232841321223</v>
-      </c>
       <c r="T13">
-        <v>-0.1552311342431723</v>
+        <v>-0.08624408439182885</v>
       </c>
       <c r="U13">
-        <v>0.0283818539168923</v>
+        <v>-0.1021035481439614</v>
       </c>
       <c r="V13">
-        <v>0.1093182318375296</v>
+        <v>-0.07120909843567613</v>
       </c>
       <c r="W13">
-        <v>0.08904591254175198</v>
+        <v>-0.05573300569792217</v>
       </c>
       <c r="X13">
-        <v>-0.1267333805689663</v>
+        <v>0.02926805735909976</v>
       </c>
       <c r="Y13">
-        <v>-0.1876573326314745</v>
+        <v>-0.1345737582127748</v>
       </c>
       <c r="Z13">
-        <v>-0.7845155491406741</v>
+        <v>-0.5756287392657988</v>
       </c>
       <c r="AA13">
-        <v>-0.7781153598125479</v>
+        <v>-0.7844010209450802</v>
       </c>
       <c r="AB13">
-        <v>-0.7251499616078294</v>
+        <v>-0.6919146680131605</v>
       </c>
       <c r="AC13">
         <v>-0.7407518902333265</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>-0.7407518902333265</v>
       </c>
-      <c r="BA13">
-        <v>-0.7407518902333265</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>-0.1744144314708818</v>
-      </c>
-      <c r="U14">
-        <v>-0.02911544486077222</v>
-      </c>
-      <c r="V14">
-        <v>0.09711575040387554</v>
-      </c>
       <c r="W14">
-        <v>0.1342781587037933</v>
+        <v>-0.07026949721593567</v>
       </c>
       <c r="X14">
-        <v>-0.0429524019892713</v>
+        <v>-0.0279021829078685</v>
       </c>
       <c r="Y14">
-        <v>-0.08915806043771068</v>
+        <v>-0.07686644652562524</v>
       </c>
       <c r="Z14">
-        <v>-0.200150175300573</v>
+        <v>-0.2394607875814136</v>
       </c>
       <c r="AA14">
-        <v>-0.1254551401159709</v>
+        <v>-0.3786583343736716</v>
       </c>
       <c r="AB14">
-        <v>-0.1802771585606822</v>
+        <v>-0.244860729922769</v>
       </c>
       <c r="AC14">
-        <v>-0.4215048939216759</v>
+        <v>-0.4363737508290888</v>
       </c>
       <c r="AD14">
-        <v>-0.6120620921455822</v>
+        <v>-0.7124953797697064</v>
       </c>
       <c r="AE14">
-        <v>-0.1253648379836103</v>
+        <v>-0.1808804304865297</v>
       </c>
       <c r="AF14">
-        <v>0.2662518592309704</v>
+        <v>0.3056679541520335</v>
       </c>
       <c r="AG14">
         <v>0.3056679541520335</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>0.3056679541520335</v>
       </c>
-      <c r="BA14">
-        <v>0.3056679541520335</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>0.1047559921357966</v>
-      </c>
-      <c r="W15">
-        <v>0.1294842077831371</v>
-      </c>
-      <c r="X15">
-        <v>-0.009109101912174733</v>
-      </c>
-      <c r="Y15">
-        <v>-0.1030981386048291</v>
-      </c>
-      <c r="Z15">
-        <v>-0.1625638343681679</v>
-      </c>
       <c r="AA15">
-        <v>-0.08050064875098073</v>
+        <v>-0.3185394740402248</v>
       </c>
       <c r="AB15">
-        <v>-0.1505894461766855</v>
+        <v>-0.2641947304525827</v>
       </c>
       <c r="AC15">
-        <v>-0.04706658266243613</v>
+        <v>-0.334882695390748</v>
       </c>
       <c r="AD15">
-        <v>-0.09748435863199401</v>
+        <v>-0.4617192974095352</v>
       </c>
       <c r="AE15">
-        <v>0.1494302794222913</v>
+        <v>-0.1077309791980285</v>
       </c>
       <c r="AF15">
-        <v>-0.7718622268289566</v>
+        <v>0.3245880452514394</v>
       </c>
       <c r="AG15">
-        <v>0.2818044080198812</v>
+        <v>-0.514812792200714</v>
       </c>
       <c r="AH15">
-        <v>-0.05370931890721353</v>
+        <v>-0.8680533514735522</v>
       </c>
       <c r="AI15">
-        <v>-0.9737659111719199</v>
+        <v>-0.8769761459347714</v>
       </c>
       <c r="AJ15">
-        <v>-0.798036187070017</v>
+        <v>-1.388491535160907</v>
       </c>
       <c r="AK15">
         <v>-1.388491535160907</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>-1.388491535160907</v>
       </c>
-      <c r="BA15">
-        <v>-1.388491535160907</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>-0.1661812972955756</v>
-      </c>
-      <c r="Z16">
-        <v>-0.4331119056789401</v>
-      </c>
-      <c r="AA16">
-        <v>-0.3764334614660969</v>
-      </c>
-      <c r="AB16">
-        <v>-0.401235785739551</v>
-      </c>
-      <c r="AC16">
-        <v>-0.01676354077246867</v>
-      </c>
-      <c r="AD16">
-        <v>-0.1843295764870967</v>
-      </c>
       <c r="AE16">
-        <v>-0.01460060178940514</v>
+        <v>-0.2598822251329125</v>
       </c>
       <c r="AF16">
-        <v>-0.07936109480145559</v>
+        <v>-0.03770935223248451</v>
       </c>
       <c r="AG16">
-        <v>-0.09267941611786901</v>
+        <v>-0.3609163387359504</v>
       </c>
       <c r="AH16">
-        <v>0.355880590751112</v>
+        <v>-0.5995895195426981</v>
       </c>
       <c r="AI16">
-        <v>-0.8257694986581909</v>
+        <v>-0.5354669478056073</v>
       </c>
       <c r="AJ16">
-        <v>0.025374137035028</v>
+        <v>-2.541003699199929</v>
       </c>
       <c r="AK16">
-        <v>-1.193502734053931</v>
+        <v>-2.321721165370549</v>
       </c>
       <c r="AL16">
-        <v>-2.110140541019756</v>
+        <v>-1.867377038014506</v>
       </c>
       <c r="AM16">
-        <v>-1.860512579858153</v>
+        <v>-1.719168896439693</v>
       </c>
       <c r="AN16">
-        <v>-1.655159161221598</v>
+        <v>-1.678482969789596</v>
       </c>
       <c r="AO16">
         <v>-1.678482969789596</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>-1.678482969789596</v>
       </c>
-      <c r="BA16">
-        <v>-1.678482969789596</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>-0.1811759141973512</v>
-      </c>
-      <c r="AD17">
-        <v>-0.3232776985972685</v>
-      </c>
-      <c r="AE17">
-        <v>-0.008286429650405935</v>
-      </c>
-      <c r="AF17">
-        <v>-0.2115362632566842</v>
-      </c>
-      <c r="AG17">
-        <v>-0.1751220360175831</v>
-      </c>
       <c r="AH17">
-        <v>0.04636517385723238</v>
+        <v>-0.498361054968377</v>
       </c>
       <c r="AI17">
-        <v>-0.3151449747064383</v>
+        <v>-0.4007230315998478</v>
       </c>
       <c r="AJ17">
-        <v>-0.208662229557488</v>
+        <v>-1.135765464024774</v>
       </c>
       <c r="AK17">
-        <v>0.455598755672626</v>
+        <v>-1.191207469356215</v>
       </c>
       <c r="AL17">
-        <v>-0.3602924411988839</v>
+        <v>-0.8537083312609495</v>
       </c>
       <c r="AM17">
-        <v>-0.2290505252614206</v>
+        <v>-0.5989817782328322</v>
       </c>
       <c r="AN17">
-        <v>0.1441694350656331</v>
+        <v>-0.6229862770763095</v>
       </c>
       <c r="AO17">
-        <v>0.1047262454232811</v>
+        <v>-1.107351089172237</v>
       </c>
       <c r="AP17">
-        <v>-0.4515441491209748</v>
+        <v>-0.9016470784766528</v>
       </c>
       <c r="AQ17">
-        <v>-0.5707406213996236</v>
+        <v>-0.6902657121583777</v>
       </c>
       <c r="AR17">
-        <v>-0.5990045920093001</v>
+        <v>-0.5999457276250508</v>
       </c>
       <c r="AS17">
         <v>-0.5999457276250508</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-0.5999457276250508</v>
       </c>
-      <c r="BA17">
-        <v>-0.5999457276250508</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>-0.2704140865251725</v>
-      </c>
-      <c r="AH18">
-        <v>-0.1530845457624608</v>
-      </c>
-      <c r="AI18">
-        <v>-1.008239992260174</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.6149179981310926</v>
-      </c>
-      <c r="AK18">
-        <v>-0.263403585377564</v>
-      </c>
       <c r="AL18">
-        <v>-0.5348759053170227</v>
+        <v>-0.9810195867723248</v>
       </c>
       <c r="AM18">
-        <v>-0.4920985275663425</v>
+        <v>-0.8414662684835927</v>
       </c>
       <c r="AN18">
-        <v>-0.2314005037532096</v>
+        <v>-1.076812708919683</v>
       </c>
       <c r="AO18">
-        <v>0.01066268345655264</v>
+        <v>-1.716216309145657</v>
       </c>
       <c r="AP18">
-        <v>0.02889222465600749</v>
+        <v>-1.556833564431637</v>
       </c>
       <c r="AQ18">
-        <v>0.0732352941048342</v>
+        <v>-1.134712300966823</v>
       </c>
       <c r="AR18">
-        <v>-0.09594573104433346</v>
+        <v>-0.7253995615808195</v>
       </c>
       <c r="AS18">
-        <v>0.06001813511820053</v>
+        <v>-0.4628630633218611</v>
       </c>
       <c r="AT18">
-        <v>-0.0412020681479941</v>
+        <v>-0.101315145211045</v>
       </c>
       <c r="AU18">
-        <v>-0.03960232994498769</v>
+        <v>-0.07874066250703748</v>
       </c>
       <c r="AV18">
-        <v>-0.06180454587446649</v>
+        <v>-0.05499271238530445</v>
       </c>
       <c r="AW18">
         <v>-0.05499271238530445</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>-0.05499271238530445</v>
       </c>
-      <c r="BA18">
-        <v>-0.05499271238530445</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>-0.4567885308173203</v>
-      </c>
-      <c r="AL19">
-        <v>-1.155473745555791</v>
-      </c>
-      <c r="AM19">
-        <v>-1.007462133087444</v>
-      </c>
-      <c r="AN19">
-        <v>-0.716006116514023</v>
-      </c>
-      <c r="AO19">
-        <v>0.04145793006815612</v>
-      </c>
       <c r="AP19">
-        <v>-0.045695512455457</v>
+        <v>-1.612451964998651</v>
       </c>
       <c r="AQ19">
-        <v>-0.02471030903717919</v>
+        <v>-1.331281919762917</v>
       </c>
       <c r="AR19">
-        <v>-0.1861537936091673</v>
+        <v>-1.109950047731278</v>
       </c>
       <c r="AS19">
-        <v>0.02381850206059077</v>
+        <v>-1.061602237248327</v>
       </c>
       <c r="AT19">
-        <v>-0.0514829764668101</v>
+        <v>-0.1859728711464226</v>
       </c>
       <c r="AU19">
-        <v>0.07100632971737131</v>
+        <v>-0.1533081888441812</v>
       </c>
       <c r="AV19">
-        <v>-0.08108884376691883</v>
+        <v>-0.1365897193907339</v>
       </c>
       <c r="AW19">
-        <v>0.02553660812301128</v>
+        <v>-0.01934819856548309</v>
       </c>
       <c r="AX19">
-        <v>0.09051274179980862</v>
+        <v>0.4236015715998187</v>
       </c>
       <c r="AY19">
-        <v>0.4705817098730858</v>
+        <v>0.4305325812036687</v>
       </c>
       <c r="AZ19">
-        <v>0.4327853568336204</v>
-      </c>
-      <c r="BA19">
         <v>0.4335297397760618</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>0.02083131243846292</v>
-      </c>
-      <c r="AP20">
-        <v>-0.1963623822190064</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.2152261015453516</v>
-      </c>
-      <c r="AR20">
-        <v>-0.3399241707749745</v>
-      </c>
-      <c r="AS20">
-        <v>0.08557451565740504</v>
-      </c>
       <c r="AT20">
-        <v>-0.1101881071602473</v>
+        <v>-0.1983696069224883</v>
       </c>
       <c r="AU20">
-        <v>-0.02856818095238189</v>
+        <v>-0.1849084361995157</v>
       </c>
       <c r="AV20">
-        <v>-0.09697534125842067</v>
+        <v>-0.2720151998323761</v>
       </c>
       <c r="AW20">
-        <v>-0.04680764841588081</v>
+        <v>-0.2680812993602677</v>
       </c>
       <c r="AX20">
-        <v>-0.09277613203892976</v>
+        <v>0.05974827491124213</v>
       </c>
       <c r="AY20">
-        <v>0.2383054438446441</v>
+        <v>0.2136583044595852</v>
       </c>
       <c r="AZ20">
-        <v>0.2080746432969294</v>
-      </c>
-      <c r="BA20">
-        <v>0.216636701550188</v>
+        <v>0.2794570629465865</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>0.07985846020897025</v>
-      </c>
-      <c r="AT21">
-        <v>-0.049659897707377</v>
-      </c>
-      <c r="AU21">
-        <v>0.02189513570618473</v>
-      </c>
-      <c r="AV21">
-        <v>-0.06252664025239163</v>
-      </c>
-      <c r="AW21">
-        <v>0.01850542525343446</v>
-      </c>
       <c r="AX21">
-        <v>0.04679684514869997</v>
+        <v>-0.0614876679608467</v>
       </c>
       <c r="AY21">
-        <v>0.03732413842001403</v>
+        <v>0.1343289496879674</v>
       </c>
       <c r="AZ21">
-        <v>0.178486574846648</v>
-      </c>
-      <c r="BA21">
-        <v>0.147165319635123</v>
+        <v>0.2251918092589511</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>0.004360114614065935</v>
-      </c>
-      <c r="AX22">
-        <v>0.02079096302614047</v>
-      </c>
-      <c r="AY22">
-        <v>0.2650511666646205</v>
-      </c>
-      <c r="AZ22">
-        <v>0.290567717780843</v>
-      </c>
-      <c r="BA22">
-        <v>0.04488941635447663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.1097578517073705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-0.2932081122163033</v>
       </c>
       <c r="AG17">
-        <v>-0.4412356890029168</v>
+        <v>-0.340404387749782</v>
       </c>
       <c r="AH17">
         <v>-1.026566979837418</v>
@@ -2451,19 +2451,19 @@
         <v>-0.1126446518617819</v>
       </c>
       <c r="AG18">
-        <v>-0.3695048299469872</v>
+        <v>0.01966269405899723</v>
       </c>
       <c r="AH18">
-        <v>-2.816143384276215</v>
+        <v>-2.21975419279502</v>
       </c>
       <c r="AI18">
-        <v>-0.7059330669460406</v>
+        <v>-0.3531291425579064</v>
       </c>
       <c r="AJ18">
-        <v>-0.03584227163500042</v>
+        <v>-0.0218774729098592</v>
       </c>
       <c r="AK18">
-        <v>-0.04976849661378902</v>
+        <v>0.4826836672569224</v>
       </c>
       <c r="AL18">
         <v>0.3179894933462268</v>
@@ -2522,31 +2522,31 @@
         <v>-0.1998500499937328</v>
       </c>
       <c r="AG19">
-        <v>-0.2972908410959763</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="AH19">
-        <v>-1.481930440776713</v>
+        <v>-1.075633867885606</v>
       </c>
       <c r="AI19">
-        <v>-1.039648953489214</v>
+        <v>-0.5986513494937173</v>
       </c>
       <c r="AJ19">
-        <v>-0.1719585843969917</v>
+        <v>-0.1415666278731798</v>
       </c>
       <c r="AK19">
-        <v>-1.608095448141689</v>
+        <v>0.3225189437850551</v>
       </c>
       <c r="AL19">
-        <v>0.07011423530434158</v>
+        <v>0.1159637930800761</v>
       </c>
       <c r="AM19">
-        <v>0.5748854066360609</v>
+        <v>0.2560024174859121</v>
       </c>
       <c r="AN19">
-        <v>1.323454226677478</v>
+        <v>1.397247299320514</v>
       </c>
       <c r="AO19">
-        <v>0.4784173072842179</v>
+        <v>0.4999563876187718</v>
       </c>
       <c r="AP19">
         <v>0.463604920919658</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-0.9681713550846793</v>
-      </c>
       <c r="AJ20">
-        <v>-0.5409307302658983</v>
+        <v>-0.5189868785143714</v>
       </c>
       <c r="AK20">
-        <v>-0.7850107468581835</v>
+        <v>-0.2397840863870515</v>
       </c>
       <c r="AL20">
-        <v>-0.2157559948896992</v>
+        <v>-0.1199460107991879</v>
       </c>
       <c r="AM20">
-        <v>0.35467759793264</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="AN20">
-        <v>0.7858329241748896</v>
+        <v>0.9379151023483967</v>
       </c>
       <c r="AO20">
-        <v>0.1043052025668345</v>
+        <v>0.2051132676207601</v>
       </c>
       <c r="AP20">
-        <v>-0.3203420516749933</v>
+        <v>0.2986939435938751</v>
       </c>
       <c r="AQ20">
-        <v>0.6932214722757513</v>
+        <v>0.7761441975947525</v>
       </c>
       <c r="AR20">
-        <v>0.8831924739260089</v>
+        <v>1.060165556740755</v>
       </c>
       <c r="AS20">
-        <v>0.4279153732809959</v>
+        <v>0.4758192390115212</v>
       </c>
       <c r="AT20">
         <v>0.621639092134818</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>0.307129168651965</v>
-      </c>
       <c r="AN21">
-        <v>0.576407698777559</v>
+        <v>0.6817359660352462</v>
       </c>
       <c r="AO21">
-        <v>0.1017699831031615</v>
+        <v>0.1600960256025408</v>
       </c>
       <c r="AP21">
-        <v>-0.006184861564628719</v>
+        <v>0.1600960256025408</v>
       </c>
       <c r="AQ21">
-        <v>0.9777431256012825</v>
+        <v>0.4006004000999708</v>
       </c>
       <c r="AR21">
-        <v>0.8355283619122744</v>
+        <v>1.167736572641509</v>
       </c>
       <c r="AS21">
-        <v>0.02757741937535751</v>
+        <v>0.7154125493561203</v>
       </c>
       <c r="AT21">
-        <v>0.009137938461889483</v>
+        <v>-0.0776179936130883</v>
       </c>
       <c r="AU21">
-        <v>-0.3894584472036278</v>
+        <v>-0.3371636084037122</v>
       </c>
       <c r="AV21">
-        <v>-1.081515348061801</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="AW21">
-        <v>-0.9378224616154895</v>
+        <v>-0.9474469367775296</v>
       </c>
       <c r="AX21">
         <v>-0.6768900623516982</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.091898539511127</v>
-      </c>
       <c r="AR22">
-        <v>1.038093566489784</v>
+        <v>1.24577792563525</v>
       </c>
       <c r="AS22">
-        <v>0.01167411483702363</v>
+        <v>0.8829082615425365</v>
       </c>
       <c r="AT22">
-        <v>0.3872749876484116</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="AU22">
-        <v>0.1876441418131369</v>
+        <v>0.2402160864129366</v>
       </c>
       <c r="AV22">
-        <v>-0.07003400812273242</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>0.3237070386496343</v>
+        <v>0.2071386822988686</v>
       </c>
       <c r="AX22">
-        <v>0.9453792747973422</v>
+        <v>1.127220362309433</v>
       </c>
       <c r="AY22">
-        <v>1.909988706581967</v>
+        <v>1.606298773444426</v>
       </c>
       <c r="AZ22">
-        <v>0.4626514211933497</v>
+        <v>0.4713506786523602</v>
       </c>
       <c r="BA22">
-        <v>1.136769786738334</v>
+        <v>1.132847588656261</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.2001552710439114</v>
-      </c>
       <c r="AV23">
-        <v>-0.08242473982812415</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>0.1796406379896531</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="AX23">
-        <v>0.2593597085510435</v>
+        <v>0.5210148790856239</v>
       </c>
       <c r="AY23">
-        <v>0.5955700148392751</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AZ23">
-        <v>-0.4747835872719319</v>
+        <v>-0.3387762121622728</v>
       </c>
       <c r="BA23">
-        <v>0.294850926654866</v>
+        <v>0.2467479214459889</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.5095513166895493</v>
-      </c>
       <c r="AZ24">
-        <v>-0.2901056775067468</v>
+        <v>-0.1199460107991768</v>
       </c>
       <c r="BA24">
-        <v>0.1783155626707389</v>
+        <v>0.1200540108007964</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>0.1200540108007742</v>
+      </c>
+      <c r="C3">
+        <v>0.4748521911469572</v>
+      </c>
+      <c r="D3">
+        <v>0.6970543652217387</v>
+      </c>
+      <c r="E3">
+        <v>0.9995687521967556</v>
+      </c>
+      <c r="F3">
+        <v>-0.01587181126745385</v>
+      </c>
+      <c r="G3">
+        <v>-0.1152878906296118</v>
+      </c>
+      <c r="H3">
+        <v>-0.2047209821942952</v>
+      </c>
+      <c r="I3">
+        <v>-0.2801429545594036</v>
+      </c>
+      <c r="J3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="K3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="L3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="M3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="N3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="O3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="P3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Q3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="R3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="S3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="T3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="U3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="V3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="W3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="X3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Y3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Z3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AA3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AB3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AC3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AD3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AE3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AF3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AG3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AH3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AI3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AK3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AL3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AM3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AN3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AO3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AP3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AR3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AS3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AT3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AU3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AV3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AW3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AX3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AY3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AZ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="BA3">
+        <v>-0.6303298271467694</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>-0.7015558851707349</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>-0.6995465100600118</v>
+        <v>0.3203842048409289</v>
       </c>
       <c r="D4">
-        <v>-0.8378691614090328</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="E4">
-        <v>-0.8130688884747772</v>
+        <v>0.02446583860156171</v>
       </c>
       <c r="F4">
-        <v>-0.7418837606389284</v>
+        <v>-0.1225239755399454</v>
       </c>
       <c r="G4">
-        <v>-0.7418837606389284</v>
+        <v>0.5978820435290855</v>
       </c>
       <c r="H4">
-        <v>-0.7418837606389284</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="I4">
-        <v>-0.7418837606389284</v>
+        <v>0.1732664175299936</v>
       </c>
       <c r="J4">
-        <v>-0.7418837606389284</v>
+        <v>0.2311193849168669</v>
       </c>
       <c r="K4">
-        <v>-0.7418837606389284</v>
+        <v>0.2562644760991883</v>
       </c>
       <c r="L4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="M4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="N4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="O4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="P4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Q4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="R4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="S4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="T4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="U4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="V4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="W4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="X4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Y4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Z4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AA4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AB4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AC4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AD4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AE4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AF4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AG4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AH4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AI4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AJ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AK4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AL4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AM4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AN4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AO4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AP4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AQ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AR4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AS4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AT4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AU4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AV4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AW4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AX4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AY4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AZ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="BA4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>0.3143490788445336</v>
-      </c>
-      <c r="C5">
-        <v>0.7771450785698075</v>
-      </c>
-      <c r="D5">
-        <v>0.3590181115727287</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>0.3564654464027761</v>
+        <v>0.1600960256025852</v>
       </c>
       <c r="F5">
-        <v>0.2765385799708087</v>
+        <v>-0.2397840863870626</v>
       </c>
       <c r="G5">
-        <v>0.2765385799708087</v>
+        <v>0.7697980859487474</v>
       </c>
       <c r="H5">
-        <v>-0.3442601760834885</v>
+        <v>-0.02753509623224515</v>
       </c>
       <c r="I5">
-        <v>-0.3442601760834885</v>
+        <v>-0.50613598754502</v>
       </c>
       <c r="J5">
-        <v>-0.3442601760834885</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="K5">
-        <v>-0.3442601760834885</v>
+        <v>0.2959607217578153</v>
       </c>
       <c r="L5">
-        <v>-0.3442601760834885</v>
+        <v>0.5943957614300777</v>
       </c>
       <c r="M5">
-        <v>-0.3442601760834885</v>
+        <v>0.5943957614300777</v>
       </c>
       <c r="N5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="O5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="P5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Q5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="R5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="S5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="T5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="U5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="V5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="W5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="X5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Y5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Z5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AA5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AB5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AC5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AD5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AE5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AF5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AG5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AH5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AI5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AJ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AK5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AL5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AM5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AN5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AO5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AP5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AQ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AR5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AS5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AT5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AU5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AV5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AW5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AX5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AY5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AZ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="BA5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>0.1200540108007964</v>
-      </c>
-      <c r="C6">
-        <v>0.4748521911469794</v>
-      </c>
-      <c r="D6">
-        <v>0.6970543652217165</v>
-      </c>
-      <c r="E6">
-        <v>0.9995687521967556</v>
-      </c>
-      <c r="F6">
-        <v>-0.01587181126743165</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-0.1152878906296118</v>
+        <v>0.3203842048409289</v>
       </c>
       <c r="H6">
-        <v>-0.2047209821942841</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="I6">
-        <v>-0.2801429545593925</v>
+        <v>-0.362324052998142</v>
       </c>
       <c r="J6">
-        <v>-0.6303298271467472</v>
+        <v>-0.2256894584805158</v>
       </c>
       <c r="K6">
-        <v>-0.6303298271467472</v>
+        <v>-0.2706540469742613</v>
       </c>
       <c r="L6">
-        <v>-0.6303298271467472</v>
+        <v>-0.1827723404408288</v>
       </c>
       <c r="M6">
-        <v>-0.6303298271467472</v>
+        <v>-0.3822321343413204</v>
       </c>
       <c r="N6">
-        <v>-0.6303298271467472</v>
+        <v>-0.4058678725275766</v>
       </c>
       <c r="O6">
-        <v>-0.6303298271467472</v>
+        <v>-0.4556399653004473</v>
       </c>
       <c r="P6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Q6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="R6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="S6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="T6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="U6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="V6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="W6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="X6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Y6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Z6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AA6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AB6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AC6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AD6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AE6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AF6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AG6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AH6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AI6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AJ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AK6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AL6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AM6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AN6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AO6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AP6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AQ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AR6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AS6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AT6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AU6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AV6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AW6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AX6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AY6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AZ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="BA6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>0.3203842048409289</v>
-      </c>
-      <c r="D7">
-        <v>0.04000600039999469</v>
-      </c>
-      <c r="E7">
-        <v>0.02446583860156171</v>
-      </c>
-      <c r="F7">
-        <v>-0.1225239755399454</v>
-      </c>
-      <c r="G7">
-        <v>0.5978820435291077</v>
-      </c>
-      <c r="H7">
-        <v>-0.02256889165885845</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>0.1732664175300158</v>
+        <v>-0.2797061371759835</v>
       </c>
       <c r="J7">
-        <v>0.2311193849168669</v>
+        <v>-0.1199460107991768</v>
       </c>
       <c r="K7">
-        <v>0.2562644760991883</v>
+        <v>-0.06282556559906727</v>
       </c>
       <c r="L7">
-        <v>0.3824851463237522</v>
+        <v>-0.2251688766574889</v>
       </c>
       <c r="M7">
-        <v>0.3824851463237522</v>
+        <v>0.006024133679316535</v>
       </c>
       <c r="N7">
-        <v>0.3824851463237522</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="O7">
-        <v>0.3824851463237522</v>
+        <v>-0.1268349561723836</v>
       </c>
       <c r="P7">
-        <v>0.3824851463237522</v>
+        <v>-0.0544176132767471</v>
       </c>
       <c r="Q7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="R7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="S7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="T7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="U7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="V7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="W7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="X7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="Y7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="Z7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AA7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AB7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AC7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AD7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AE7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AF7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AG7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AH7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AI7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AJ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AK7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AL7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AM7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AN7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AO7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AP7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AQ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AR7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AS7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AT7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AU7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AV7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AW7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AX7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AY7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AZ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="BA7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>0.1600960256025408</v>
-      </c>
-      <c r="F8">
-        <v>-0.2397840863870626</v>
-      </c>
-      <c r="G8">
-        <v>0.7697980859487474</v>
-      </c>
-      <c r="H8">
-        <v>-0.02753509623226735</v>
-      </c>
-      <c r="I8">
-        <v>-0.5061359875450311</v>
-      </c>
-      <c r="J8">
-        <v>0.09611428386597787</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>0.2959607217577931</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="L8">
-        <v>0.5943957614300999</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5943957614300999</v>
+        <v>0.01247916696662799</v>
       </c>
       <c r="N8">
-        <v>0.4942252260480062</v>
+        <v>0.1494097328869959</v>
       </c>
       <c r="O8">
-        <v>0.4942252260480062</v>
+        <v>0.3981709080043139</v>
       </c>
       <c r="P8">
-        <v>0.4942252260480062</v>
+        <v>-0.075754880139145</v>
       </c>
       <c r="Q8">
-        <v>0.4942252260480062</v>
+        <v>-0.050511210332016</v>
       </c>
       <c r="R8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="S8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="T8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="U8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="V8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="W8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="X8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="Y8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="Z8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AA8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AB8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AC8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AD8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AE8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AF8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AG8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AH8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AI8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AJ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AK8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AL8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AM8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AN8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AO8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AP8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AQ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AR8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AS8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AT8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AU8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AV8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AW8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AX8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AY8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AZ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="BA8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.3203842048409289</v>
-      </c>
-      <c r="H9">
-        <v>-0.1599040255974127</v>
-      </c>
-      <c r="I9">
-        <v>-0.362324052998142</v>
-      </c>
-      <c r="J9">
-        <v>-0.2256894584805158</v>
-      </c>
-      <c r="K9">
-        <v>-0.2706540469742502</v>
-      </c>
-      <c r="L9">
-        <v>-0.1827723404408288</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>-0.3822321343413204</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="N9">
-        <v>-0.4058678725275877</v>
+        <v>0.08002400320015202</v>
       </c>
       <c r="O9">
-        <v>-0.4556399653004473</v>
+        <v>0.174086048246691</v>
       </c>
       <c r="P9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5497151367044428</v>
       </c>
       <c r="Q9">
-        <v>-0.8283953561833313</v>
+        <v>-0.2945738319855118</v>
       </c>
       <c r="R9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="S9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5511352283395166</v>
       </c>
       <c r="T9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5764019548604726</v>
       </c>
       <c r="U9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="V9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="W9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="X9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="Y9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="Z9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AA9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AB9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AC9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AD9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AE9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AF9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AG9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AH9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AI9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AJ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AK9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AL9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AM9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AN9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AO9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AP9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AQ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AR9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AS9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AT9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AU9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AV9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AW9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AX9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AY9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AZ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="BA9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>-0.2797061371760057</v>
-      </c>
-      <c r="J10">
-        <v>-0.1199460107991879</v>
-      </c>
-      <c r="K10">
-        <v>-0.06282556559906727</v>
-      </c>
-      <c r="L10">
-        <v>-0.2251688766575</v>
-      </c>
-      <c r="M10">
-        <v>0.006024133679316535</v>
-      </c>
-      <c r="N10">
-        <v>-0.001350220946483294</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-0.1268349561723836</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>-0.0544176132767471</v>
+        <v>-0.3196162047590434</v>
       </c>
       <c r="Q10">
-        <v>-0.1541135436267549</v>
+        <v>-0.03768624985648339</v>
       </c>
       <c r="R10">
-        <v>-0.1541135436267549</v>
+        <v>-0.1255150964614482</v>
       </c>
       <c r="S10">
-        <v>-0.1541135436267549</v>
+        <v>-0.03047919532178645</v>
       </c>
       <c r="T10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2011999787958185</v>
       </c>
       <c r="U10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="V10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="W10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="X10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="Y10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="Z10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AA10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AB10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AC10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AD10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AE10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AF10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AG10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AH10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AI10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AJ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AK10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AL10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AM10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AN10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AO10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AP10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AQ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AR10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AS10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AT10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AU10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AV10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AW10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AX10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AY10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AZ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="BA10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>0.04000600039999469</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0.01247916696665019</v>
-      </c>
-      <c r="N11">
-        <v>0.1494097328869959</v>
-      </c>
-      <c r="O11">
-        <v>0.3981709080043139</v>
-      </c>
-      <c r="P11">
-        <v>-0.075754880139145</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>-0.0505112103320271</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="R11">
-        <v>0.2992729818363626</v>
+        <v>-0.1199460107991657</v>
       </c>
       <c r="S11">
-        <v>0.2992729818363626</v>
+        <v>-0.1249617237519041</v>
       </c>
       <c r="T11">
-        <v>0.2992729818363626</v>
+        <v>-0.3746351385105373</v>
       </c>
       <c r="U11">
-        <v>0.2992729818363626</v>
+        <v>0.1932702877606163</v>
       </c>
       <c r="V11">
-        <v>0.2992729818363626</v>
+        <v>0.1213692818849532</v>
       </c>
       <c r="W11">
-        <v>0.2992729818363626</v>
+        <v>0.2219444472046028</v>
       </c>
       <c r="X11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="Y11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="Z11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AA11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AB11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AC11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AD11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AE11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AF11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AG11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AH11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AI11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AJ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AK11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AL11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AM11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AN11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AO11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AP11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AQ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AR11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AS11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AT11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AU11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AV11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AW11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AX11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AY11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AZ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="BA11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.04000600039999469</v>
-      </c>
-      <c r="N12">
-        <v>0.08002400320015202</v>
-      </c>
-      <c r="O12">
-        <v>0.1740860482467133</v>
-      </c>
-      <c r="P12">
-        <v>-0.5497151367044428</v>
-      </c>
-      <c r="Q12">
-        <v>-0.2945738319855118</v>
-      </c>
-      <c r="R12">
-        <v>-0.5761528471665445</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>-0.5511352283395277</v>
+        <v>-0.1599040255974127</v>
       </c>
       <c r="T12">
-        <v>-0.5764019548604726</v>
+        <v>-0.3595142915343796</v>
       </c>
       <c r="U12">
-        <v>-0.6011708148489947</v>
+        <v>-0.2500935825088479</v>
       </c>
       <c r="V12">
-        <v>-0.6011708148489947</v>
+        <v>0.1731436979489631</v>
       </c>
       <c r="W12">
-        <v>-0.6011708148489947</v>
+        <v>0.2738179272064434</v>
       </c>
       <c r="X12">
-        <v>-0.6011708148489947</v>
+        <v>-0.1256133802673975</v>
       </c>
       <c r="Y12">
-        <v>-0.6011708148489947</v>
+        <v>0.08160407806372394</v>
       </c>
       <c r="Z12">
-        <v>-0.6011708148489947</v>
+        <v>0.1493219406571766</v>
       </c>
       <c r="AA12">
-        <v>-0.6011708148489947</v>
+        <v>0.2997710475070248</v>
       </c>
       <c r="AB12">
-        <v>-0.6011708148489947</v>
+        <v>0.3750834813967208</v>
       </c>
       <c r="AC12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AD12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AE12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AF12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AG12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AH12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AI12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AJ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AK12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AL12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AM12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AN12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AO12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AP12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AQ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AR12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AS12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AT12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AU12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AV12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AW12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AX12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AY12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AZ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="BA12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>-0.3196162047590434</v>
-      </c>
-      <c r="Q13">
-        <v>-0.03768624985649449</v>
-      </c>
-      <c r="R13">
-        <v>-0.1255150964614482</v>
-      </c>
-      <c r="S13">
-        <v>-0.03047919532177534</v>
-      </c>
-      <c r="T13">
-        <v>-0.2011999787958185</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>-0.251362944528688</v>
+        <v>-0.1599040255974349</v>
       </c>
       <c r="V13">
-        <v>-0.251362944528688</v>
+        <v>-0.0399940003999899</v>
       </c>
       <c r="W13">
-        <v>-0.251362944528688</v>
+        <v>0.2001500500062203</v>
       </c>
       <c r="X13">
-        <v>-0.251362944528688</v>
+        <v>-0.02501876407304815</v>
       </c>
       <c r="Y13">
-        <v>-0.251362944528688</v>
+        <v>0.2722769713627837</v>
       </c>
       <c r="Z13">
-        <v>-0.251362944528688</v>
+        <v>0.9013851022877439</v>
       </c>
       <c r="AA13">
-        <v>-0.251362944528688</v>
+        <v>0.2799548089016834</v>
       </c>
       <c r="AB13">
-        <v>-0.251362944528688</v>
+        <v>-0.2736870064301455</v>
       </c>
       <c r="AC13">
-        <v>-0.251362944528688</v>
+        <v>-0.2916219766884165</v>
       </c>
       <c r="AD13">
-        <v>-0.251362944528688</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="AE13">
-        <v>-0.251362944528688</v>
+        <v>-0.5527494010853284</v>
       </c>
       <c r="AF13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AG13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AH13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AI13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AJ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AK13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AL13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AM13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AN13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AO13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AP13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AQ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AR13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AS13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AT13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AU13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AV13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AW13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AX13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AY13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AZ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="BA13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>0.04000600040001689</v>
-      </c>
-      <c r="R14">
-        <v>-0.1199460107991657</v>
-      </c>
-      <c r="S14">
-        <v>-0.1249617237519152</v>
-      </c>
-      <c r="T14">
-        <v>-0.3746351385105373</v>
-      </c>
-      <c r="U14">
-        <v>0.1932702877606385</v>
-      </c>
-      <c r="V14">
-        <v>0.1213692818849532</v>
-      </c>
-      <c r="W14">
-        <v>0.2219444472046028</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>0.2729872858366011</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.2729872858366011</v>
+        <v>0.1200540108008186</v>
       </c>
       <c r="Z14">
-        <v>0.2729872858366011</v>
+        <v>0.4808646914074011</v>
       </c>
       <c r="AA14">
-        <v>0.2729872858366011</v>
+        <v>0.3604862916655849</v>
       </c>
       <c r="AB14">
-        <v>0.2729872858366011</v>
+        <v>-0.11321783823105</v>
       </c>
       <c r="AC14">
-        <v>0.2729872858366011</v>
+        <v>-0.2643564666883758</v>
       </c>
       <c r="AD14">
-        <v>0.2729872858366011</v>
+        <v>-0.8258413506386342</v>
       </c>
       <c r="AE14">
-        <v>0.2729872858366011</v>
+        <v>-0.3225448117294083</v>
       </c>
       <c r="AF14">
-        <v>0.2729872858366011</v>
+        <v>-0.2932081122163255</v>
       </c>
       <c r="AG14">
-        <v>0.2729872858366011</v>
+        <v>-0.3404043877497931</v>
       </c>
       <c r="AH14">
-        <v>0.2729872858366011</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="AI14">
-        <v>0.2729872858366011</v>
+        <v>-0.9773044327964553</v>
       </c>
       <c r="AJ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AK14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AL14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AM14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AN14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AO14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AP14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AQ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AR14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AS14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AT14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AU14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AV14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AW14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AX14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AY14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AZ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="BA14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>-0.1599040255974349</v>
-      </c>
-      <c r="T15">
-        <v>-0.3595142915343907</v>
-      </c>
-      <c r="U15">
-        <v>-0.250093582508859</v>
-      </c>
-      <c r="V15">
-        <v>0.1731436979489631</v>
-      </c>
-      <c r="W15">
-        <v>0.2738179272064434</v>
-      </c>
-      <c r="X15">
-        <v>-0.1256133802673975</v>
-      </c>
-      <c r="Y15">
-        <v>0.08160407806372394</v>
-      </c>
-      <c r="Z15">
-        <v>0.1493219406571766</v>
-      </c>
-      <c r="AA15">
-        <v>0.2997710475070026</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.3750834813966986</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="AC15">
-        <v>0.1243096661368792</v>
+        <v>-0.1998500499937217</v>
       </c>
       <c r="AD15">
-        <v>0.1243096661368792</v>
+        <v>-0.2797061371759946</v>
       </c>
       <c r="AE15">
-        <v>0.1243096661368792</v>
+        <v>-0.2397840863870626</v>
       </c>
       <c r="AF15">
-        <v>0.1243096661368792</v>
+        <v>-0.112644651861793</v>
       </c>
       <c r="AG15">
-        <v>0.1243096661368792</v>
+        <v>0.01966269405897503</v>
       </c>
       <c r="AH15">
-        <v>0.1243096661368792</v>
+        <v>-2.21975419279502</v>
       </c>
       <c r="AI15">
-        <v>0.1243096661368792</v>
+        <v>-0.3531291425579064</v>
       </c>
       <c r="AJ15">
-        <v>0.1243096661368792</v>
+        <v>-0.02187747290984809</v>
       </c>
       <c r="AK15">
-        <v>0.1243096661368792</v>
+        <v>0.4826836672569224</v>
       </c>
       <c r="AL15">
-        <v>0.1243096661368792</v>
+        <v>0.3179894933462268</v>
       </c>
       <c r="AM15">
-        <v>0.1243096661368792</v>
+        <v>0.2925841306726351</v>
       </c>
       <c r="AN15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AO15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AP15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AQ15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AR15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AS15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AT15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AU15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AV15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AW15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AX15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AY15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AZ15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="BA15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
+        <v>44926</v>
+      </c>
+      <c r="AF16">
+        <v>-0.1998500499937217</v>
+      </c>
+      <c r="AG16">
         <v>-0.1599040255974238</v>
       </c>
-      <c r="V16">
-        <v>-0.0399940003999899</v>
-      </c>
-      <c r="W16">
-        <v>0.2001500500062425</v>
-      </c>
-      <c r="X16">
-        <v>-0.02501876407304815</v>
-      </c>
-      <c r="Y16">
-        <v>0.2722769713627837</v>
-      </c>
-      <c r="Z16">
-        <v>0.9013851022877439</v>
-      </c>
-      <c r="AA16">
-        <v>0.2799548089016612</v>
-      </c>
-      <c r="AB16">
-        <v>-0.2736870064301455</v>
-      </c>
-      <c r="AC16">
-        <v>-0.2916219766884276</v>
-      </c>
-      <c r="AD16">
-        <v>-0.4278219446121612</v>
-      </c>
-      <c r="AE16">
-        <v>-0.5527494010853284</v>
-      </c>
-      <c r="AF16">
-        <v>-0.402514693283651</v>
-      </c>
-      <c r="AG16">
-        <v>-0.402514693283651</v>
-      </c>
       <c r="AH16">
-        <v>-0.402514693283651</v>
+        <v>-1.075633867885606</v>
       </c>
       <c r="AI16">
-        <v>-0.402514693283651</v>
+        <v>-0.5986513494937395</v>
       </c>
       <c r="AJ16">
-        <v>-0.402514693283651</v>
+        <v>-0.1415666278731686</v>
       </c>
       <c r="AK16">
-        <v>-0.402514693283651</v>
+        <v>0.3225189437850551</v>
       </c>
       <c r="AL16">
-        <v>-0.402514693283651</v>
+        <v>0.1159637930800761</v>
       </c>
       <c r="AM16">
-        <v>-0.402514693283651</v>
+        <v>0.2560024174859121</v>
       </c>
       <c r="AN16">
-        <v>-0.402514693283651</v>
+        <v>1.397247299320514</v>
       </c>
       <c r="AO16">
-        <v>-0.402514693283651</v>
+        <v>0.4999563876187718</v>
       </c>
       <c r="AP16">
-        <v>-0.402514693283651</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="AQ16">
-        <v>-0.402514693283651</v>
+        <v>0.5395297571184399</v>
       </c>
       <c r="AR16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AS16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AT16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AU16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AV16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AW16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AX16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AY16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AZ16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="BA16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0.1200540108007964</v>
-      </c>
-      <c r="Z17">
-        <v>0.4808646914074011</v>
-      </c>
-      <c r="AA17">
-        <v>0.3604862916655627</v>
-      </c>
-      <c r="AB17">
-        <v>-0.11321783823105</v>
-      </c>
-      <c r="AC17">
-        <v>-0.2643564666883758</v>
-      </c>
-      <c r="AD17">
-        <v>-0.8258413506386342</v>
-      </c>
-      <c r="AE17">
-        <v>-0.3225448117294083</v>
-      </c>
-      <c r="AF17">
-        <v>-0.2932081122163033</v>
-      </c>
-      <c r="AG17">
-        <v>-0.340404387749782</v>
-      </c>
-      <c r="AH17">
-        <v>-1.026566979837418</v>
-      </c>
-      <c r="AI17">
-        <v>-0.9773044327964442</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-0.9275935716973271</v>
+        <v>-0.5189868785143825</v>
       </c>
       <c r="AK17">
-        <v>-0.9275935716973271</v>
+        <v>-0.2397840863870626</v>
       </c>
       <c r="AL17">
-        <v>-0.9275935716973271</v>
+        <v>-0.1199460107991768</v>
       </c>
       <c r="AM17">
-        <v>-0.9275935716973271</v>
+        <v>-0.1599040255974238</v>
       </c>
       <c r="AN17">
-        <v>-0.9275935716973271</v>
+        <v>0.9379151023484189</v>
       </c>
       <c r="AO17">
-        <v>-0.9275935716973271</v>
+        <v>0.2051132676207601</v>
       </c>
       <c r="AP17">
-        <v>-0.9275935716973271</v>
+        <v>0.2986939435938973</v>
       </c>
       <c r="AQ17">
-        <v>-0.9275935716973271</v>
+        <v>0.7761441975947525</v>
       </c>
       <c r="AR17">
-        <v>-0.9275935716973271</v>
+        <v>1.060165556740755</v>
       </c>
       <c r="AS17">
-        <v>-0.9275935716973271</v>
+        <v>0.4758192390115212</v>
       </c>
       <c r="AT17">
-        <v>-0.9275935716973271</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="AU17">
-        <v>-0.9275935716973271</v>
+        <v>0.5469773526883603</v>
       </c>
       <c r="AV17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AW17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AX17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AY17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AZ17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="BA17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>0.04000600039999469</v>
-      </c>
-      <c r="AC18">
-        <v>-0.1998500499937328</v>
-      </c>
-      <c r="AD18">
-        <v>-0.2797061371760168</v>
-      </c>
-      <c r="AE18">
-        <v>-0.2397840863870626</v>
-      </c>
-      <c r="AF18">
-        <v>-0.1126446518617819</v>
-      </c>
-      <c r="AG18">
-        <v>0.01966269405899723</v>
-      </c>
-      <c r="AH18">
-        <v>-2.21975419279502</v>
-      </c>
-      <c r="AI18">
-        <v>-0.3531291425579064</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.0218774729098592</v>
-      </c>
-      <c r="AK18">
-        <v>0.4826836672569224</v>
-      </c>
-      <c r="AL18">
-        <v>0.3179894933462268</v>
-      </c>
-      <c r="AM18">
-        <v>0.2925841306726129</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>0.2398177392026746</v>
+        <v>0.6817359660352018</v>
       </c>
       <c r="AO18">
-        <v>0.2398177392026746</v>
+        <v>0.1600960256025408</v>
       </c>
       <c r="AP18">
-        <v>0.2398177392026746</v>
+        <v>0.1600960256025186</v>
       </c>
       <c r="AQ18">
-        <v>0.2398177392026746</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AR18">
-        <v>0.2398177392026746</v>
+        <v>1.167736572641509</v>
       </c>
       <c r="AS18">
-        <v>0.2398177392026746</v>
+        <v>0.7154125493561203</v>
       </c>
       <c r="AT18">
-        <v>0.2398177392026746</v>
+        <v>-0.0776179936130994</v>
       </c>
       <c r="AU18">
-        <v>0.2398177392026746</v>
+        <v>-0.3371636084037011</v>
       </c>
       <c r="AV18">
-        <v>0.2398177392026746</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="AW18">
-        <v>0.2398177392026746</v>
+        <v>-0.9474469367775296</v>
       </c>
       <c r="AX18">
-        <v>0.2398177392026746</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="AY18">
-        <v>0.2398177392026746</v>
+        <v>-0.9251966500764652</v>
       </c>
       <c r="AZ18">
-        <v>0.2398177392026746</v>
+        <v>-0.850803046382087</v>
       </c>
       <c r="BA18">
-        <v>0.2398177392026746</v>
+        <v>-0.850803046382087</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-0.1998500499937328</v>
-      </c>
-      <c r="AG19">
-        <v>-0.1599040255974238</v>
-      </c>
-      <c r="AH19">
-        <v>-1.075633867885606</v>
-      </c>
-      <c r="AI19">
-        <v>-0.5986513494937173</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.1415666278731798</v>
-      </c>
-      <c r="AK19">
-        <v>0.3225189437850551</v>
-      </c>
-      <c r="AL19">
-        <v>0.1159637930800761</v>
-      </c>
-      <c r="AM19">
-        <v>0.2560024174859121</v>
-      </c>
-      <c r="AN19">
-        <v>1.397247299320514</v>
-      </c>
-      <c r="AO19">
-        <v>0.4999563876187718</v>
-      </c>
-      <c r="AP19">
-        <v>0.463604920919658</v>
-      </c>
-      <c r="AQ19">
-        <v>0.5395297571184177</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>0.539177729005802</v>
+        <v>1.245777925635294</v>
       </c>
       <c r="AS19">
-        <v>0.539177729005802</v>
+        <v>0.8829082615425587</v>
       </c>
       <c r="AT19">
-        <v>0.539177729005802</v>
+        <v>0.04000600040001689</v>
       </c>
       <c r="AU19">
-        <v>0.539177729005802</v>
+        <v>0.2402160864129366</v>
       </c>
       <c r="AV19">
-        <v>0.539177729005802</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>0.539177729005802</v>
+        <v>0.2071386822988686</v>
       </c>
       <c r="AX19">
-        <v>0.539177729005802</v>
+        <v>1.127220362309433</v>
       </c>
       <c r="AY19">
-        <v>0.539177729005802</v>
+        <v>1.606298773444426</v>
       </c>
       <c r="AZ19">
-        <v>0.539177729005802</v>
+        <v>0.4713506786523602</v>
       </c>
       <c r="BA19">
-        <v>0.539177729005802</v>
+        <v>1.132847588656238</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.5189868785143714</v>
-      </c>
-      <c r="AK20">
-        <v>-0.2397840863870515</v>
-      </c>
-      <c r="AL20">
-        <v>-0.1199460107991879</v>
-      </c>
-      <c r="AM20">
-        <v>-0.1599040255974238</v>
-      </c>
-      <c r="AN20">
-        <v>0.9379151023483967</v>
-      </c>
-      <c r="AO20">
-        <v>0.2051132676207601</v>
-      </c>
-      <c r="AP20">
-        <v>0.2986939435938751</v>
-      </c>
-      <c r="AQ20">
-        <v>0.7761441975947525</v>
-      </c>
-      <c r="AR20">
-        <v>1.060165556740755</v>
-      </c>
-      <c r="AS20">
-        <v>0.4758192390115212</v>
-      </c>
-      <c r="AT20">
-        <v>0.621639092134818</v>
-      </c>
-      <c r="AU20">
-        <v>0.5469773526883603</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.699220385288668</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>0.699220385288668</v>
+        <v>0.04000600039999469</v>
       </c>
       <c r="AX20">
-        <v>0.699220385288668</v>
+        <v>0.5210148790856461</v>
       </c>
       <c r="AY20">
-        <v>0.699220385288668</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AZ20">
-        <v>0.699220385288668</v>
+        <v>-0.338776212162295</v>
       </c>
       <c r="BA20">
-        <v>0.699220385288668</v>
+        <v>0.2467479214459667</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>0.6817359660352462</v>
-      </c>
-      <c r="AO21">
-        <v>0.1600960256025408</v>
-      </c>
-      <c r="AP21">
-        <v>0.1600960256025408</v>
-      </c>
-      <c r="AQ21">
-        <v>0.4006004000999708</v>
-      </c>
-      <c r="AR21">
-        <v>1.167736572641509</v>
-      </c>
-      <c r="AS21">
-        <v>0.7154125493561203</v>
-      </c>
-      <c r="AT21">
-        <v>-0.0776179936130883</v>
-      </c>
-      <c r="AU21">
-        <v>-0.3371636084037122</v>
-      </c>
-      <c r="AV21">
-        <v>-1.073387923554092</v>
-      </c>
-      <c r="AW21">
-        <v>-0.9474469367775296</v>
-      </c>
-      <c r="AX21">
-        <v>-0.6768900623516982</v>
-      </c>
-      <c r="AY21">
-        <v>-0.9251966500764763</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.850803046382087</v>
+        <v>-0.1199460107991768</v>
       </c>
       <c r="BA21">
-        <v>-0.850803046382087</v>
+        <v>0.1200540108007964</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.24577792563525</v>
-      </c>
-      <c r="AS22">
-        <v>0.8829082615425365</v>
-      </c>
-      <c r="AT22">
-        <v>0.04000600040001689</v>
-      </c>
-      <c r="AU22">
-        <v>0.2402160864129366</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0.2071386822988686</v>
-      </c>
-      <c r="AX22">
-        <v>1.127220362309433</v>
-      </c>
-      <c r="AY22">
-        <v>1.606298773444426</v>
-      </c>
-      <c r="AZ22">
-        <v>0.4713506786523602</v>
-      </c>
-      <c r="BA22">
-        <v>1.132847588656261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0.04000600040001689</v>
-      </c>
-      <c r="AX23">
-        <v>0.5210148790856239</v>
-      </c>
-      <c r="AY23">
-        <v>0.4006004000999486</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.3387762121622728</v>
-      </c>
-      <c r="BA23">
-        <v>0.2467479214459889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-0.1199460107991768</v>
-      </c>
-      <c r="BA24">
-        <v>0.1200540108007964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-0.6303298271467694</v>
       </c>
+      <c r="BB3">
+        <v>-0.6303298271467694</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>0.3824851463237522</v>
       </c>
+      <c r="BB4">
+        <v>0.3824851463237522</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>0.4942252260480062</v>
       </c>
+      <c r="BB5">
+        <v>0.4942252260480062</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>-0.8283953561833202</v>
       </c>
+      <c r="BB6">
+        <v>-0.8283953561833202</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.1541135436267549</v>
       </c>
+      <c r="BB7">
+        <v>-0.1541135436267549</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>0.2992729818363626</v>
       </c>
+      <c r="BB8">
+        <v>0.2992729818363626</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>-0.6011708148489947</v>
       </c>
+      <c r="BB9">
+        <v>-0.6011708148489947</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>-0.2513629445286991</v>
       </c>
+      <c r="BB10">
+        <v>-0.2513629445286991</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>0.2729872858366011</v>
       </c>
+      <c r="BB11">
+        <v>0.2729872858366011</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>0.1243096661369014</v>
       </c>
+      <c r="BB12">
+        <v>0.1243096661369014</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>-0.4025146932836732</v>
       </c>
+      <c r="BB13">
+        <v>-0.4025146932836732</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-0.9275935716973494</v>
       </c>
+      <c r="BB14">
+        <v>-0.9275935716973494</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>0.2398177392026746</v>
       </c>
+      <c r="BB15">
+        <v>0.2398177392026746</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>0.539177729005802</v>
       </c>
+      <c r="BB16">
+        <v>0.539177729005802</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.6992203852886458</v>
       </c>
+      <c r="BB17">
+        <v>0.6992203852886458</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-0.850803046382087</v>
       </c>
+      <c r="BB18">
+        <v>-0.850803046382087</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>1.132847588656238</v>
       </c>
+      <c r="BB19">
+        <v>1.049317648994741</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>0.2467479214459667</v>
       </c>
+      <c r="BB20">
+        <v>0.3243937446859801</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>0.1200540108007964</v>
       </c>
+      <c r="BB21">
+        <v>0.1600960256025408</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
